--- a/Archive/TC1/TC1Results_I.xlsx
+++ b/Archive/TC1/TC1Results_I.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1176752\Documents\VSCode\Projects\LPSD\LPSD\Test Case - 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nventco-my.sharepoint.com/personal/e1176752_nventco_com/Documents/Documents/VSCode/Projects/LPSD/LPSD/Archive/TC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A03F1A3-0E72-467C-8884-5691DAF56A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reductive" sheetId="1" r:id="rId1"/>
@@ -1213,10 +1213,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1263,57 +1263,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1464,16 +1414,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1490,6 +1430,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Input Data"/>
       <sheetName val="Mult"/>
@@ -1623,7 +1566,7 @@
             <v>1</v>
           </cell>
           <cell r="Q2">
-            <v>3.6549150563991302</v>
+            <v>9.4355689204380404</v>
           </cell>
           <cell r="R2">
             <v>10</v>
@@ -2049,7 +1992,7 @@
             <v>7</v>
           </cell>
           <cell r="Q8">
-            <v>4.3220030559371132</v>
+            <v>12.058751075325956</v>
           </cell>
           <cell r="R8">
             <v>20</v>
@@ -2191,7 +2134,7 @@
             <v>9</v>
           </cell>
           <cell r="Q10">
-            <v>5.6767304423228628</v>
+            <v>15.019529343614105</v>
           </cell>
           <cell r="R10">
             <v>20</v>
@@ -2475,7 +2418,7 @@
             <v>13</v>
           </cell>
           <cell r="Q14">
-            <v>4.3220030559371132</v>
+            <v>12.058751075325956</v>
           </cell>
           <cell r="R14">
             <v>20</v>
@@ -2617,7 +2560,7 @@
             <v>15</v>
           </cell>
           <cell r="Q16">
-            <v>5.6767304423228628</v>
+            <v>15.019529343614105</v>
           </cell>
           <cell r="R16">
             <v>20</v>
@@ -2759,7 +2702,7 @@
             <v>17</v>
           </cell>
           <cell r="Q18">
-            <v>4.3220030559371132</v>
+            <v>12.058751075325956</v>
           </cell>
           <cell r="R18">
             <v>20</v>
@@ -2972,7 +2915,7 @@
             <v>20</v>
           </cell>
           <cell r="Q21">
-            <v>5.6767304423228628</v>
+            <v>15.019529343614105</v>
           </cell>
           <cell r="R21">
             <v>20</v>
@@ -3114,7 +3057,7 @@
             <v>22</v>
           </cell>
           <cell r="Q23">
-            <v>4.3220030559371132</v>
+            <v>12.058751075325956</v>
           </cell>
           <cell r="R23">
             <v>20</v>
@@ -3256,7 +3199,7 @@
             <v>24</v>
           </cell>
           <cell r="Q25">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R25">
             <v>30</v>
@@ -3398,7 +3341,7 @@
             <v>26</v>
           </cell>
           <cell r="Q27">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R27">
             <v>30</v>
@@ -3540,7 +3483,7 @@
             <v>28</v>
           </cell>
           <cell r="Q29">
-            <v>10.881676121283707</v>
+            <v>31.160993631510163</v>
           </cell>
           <cell r="R29">
             <v>30</v>
@@ -3682,7 +3625,7 @@
             <v>30</v>
           </cell>
           <cell r="Q31">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R31">
             <v>30</v>
@@ -3824,7 +3767,7 @@
             <v>32</v>
           </cell>
           <cell r="Q33">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R33">
             <v>30</v>
@@ -3966,7 +3909,7 @@
             <v>34</v>
           </cell>
           <cell r="Q35">
-            <v>10.881676121283707</v>
+            <v>31.160993631510163</v>
           </cell>
           <cell r="R35">
             <v>30</v>
@@ -4108,7 +4051,7 @@
             <v>36</v>
           </cell>
           <cell r="Q37">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R37">
             <v>30</v>
@@ -4250,7 +4193,7 @@
             <v>38</v>
           </cell>
           <cell r="Q39">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R39">
             <v>30</v>
@@ -4392,7 +4335,7 @@
             <v>40</v>
           </cell>
           <cell r="Q41">
-            <v>10.881676121283707</v>
+            <v>31.160993631510163</v>
           </cell>
           <cell r="R41">
             <v>30</v>
@@ -4534,7 +4477,7 @@
             <v>42</v>
           </cell>
           <cell r="Q43">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R43">
             <v>30</v>
@@ -4676,7 +4619,7 @@
             <v>44</v>
           </cell>
           <cell r="Q45">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R45">
             <v>30</v>
@@ -4818,7 +4761,7 @@
             <v>46</v>
           </cell>
           <cell r="Q47">
-            <v>7.3936319761437641</v>
+            <v>21.314745308585483</v>
           </cell>
           <cell r="R47">
             <v>30</v>
@@ -5252,11 +5195,6 @@
           <cell r="S53">
             <v>1</v>
           </cell>
-          <cell r="T53"/>
-          <cell r="U53"/>
-          <cell r="V53"/>
-          <cell r="W53"/>
-          <cell r="X53"/>
         </row>
         <row r="54">
           <cell r="A54">
@@ -9338,9 +9276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11363,6 +11301,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -11370,80 +11314,58 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="R3 M4:M25 R26:R47">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+  <conditionalFormatting sqref="L3:L45">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L45">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+  <conditionalFormatting sqref="L47:L49">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+  <conditionalFormatting sqref="R3 M4:M25 R26:R47">
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11454,8 +11376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11470,16 +11392,16 @@
       <c r="A1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="19" t="s">
         <v>49</v>
       </c>
@@ -11510,7 +11432,7 @@
       <c r="S1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -11546,7 +11468,7 @@
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
-      <c r="T2" s="21"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -14577,12 +14499,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M2"/>
@@ -14590,16 +14506,14 @@
     <mergeCell ref="P1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="S3:U49">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R49">
+  <conditionalFormatting sqref="R3:U49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -14615,7 +14529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
